--- a/docs/Records and Playlists/playlists.xlsx
+++ b/docs/Records and Playlists/playlists.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\לעלות לגיט\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="600" windowWidth="20520" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -32,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="50">
   <si>
     <t>language</t>
   </si>
@@ -76,9 +71,6 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>ARA99DC</t>
-  </si>
-  <si>
     <t>SPA99DC</t>
   </si>
   <si>
@@ -152,13 +144,46 @@
   </si>
   <si>
     <t>arab middle east</t>
+  </si>
+  <si>
+    <t>ARANA99DC</t>
+  </si>
+  <si>
+    <t>ARAME99DC</t>
+  </si>
+  <si>
+    <t>HEB30DC</t>
+  </si>
+  <si>
+    <t>HEB40DC</t>
+  </si>
+  <si>
+    <t>HEB50DC</t>
+  </si>
+  <si>
+    <t>HEB60DC</t>
+  </si>
+  <si>
+    <t>HEB70DC</t>
+  </si>
+  <si>
+    <t>HEB80DC</t>
+  </si>
+  <si>
+    <t>Hebrew</t>
+  </si>
+  <si>
+    <t>heb</t>
+  </si>
+  <si>
+    <t>heb_songs_v1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -435,7 +460,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -487,7 +512,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -681,21 +706,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="12.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.875" style="2" bestFit="1" customWidth="1"/>
@@ -709,7 +734,7 @@
     <col min="10" max="47" width="9.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="15" thickBot="1">
       <c r="A1" s="27" t="s">
         <v>2</v>
       </c>
@@ -720,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E1" s="28" t="s">
         <v>4</v>
@@ -735,7 +760,7 @@
         <v>6</v>
       </c>
       <c r="I1" s="30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
@@ -750,15 +775,15 @@
       <c r="T1" s="4"/>
       <c r="U1" s="4"/>
     </row>
-    <row r="2" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" ht="14.25" customHeight="1">
       <c r="A2" s="24" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="B2" s="25" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2" s="25" t="s">
         <v>8</v>
@@ -770,7 +795,7 @@
         <v>12</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H2" s="25"/>
       <c r="I2" s="19">
@@ -789,18 +814,18 @@
       <c r="T2" s="4"/>
       <c r="U2" s="4"/>
     </row>
-    <row r="3" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" ht="14.25" customHeight="1">
       <c r="A3" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="19" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E3" s="20" t="s">
         <v>12</v>
@@ -809,7 +834,7 @@
         <v>12</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H3" s="19"/>
       <c r="I3" s="19">
@@ -828,9 +853,9 @@
       <c r="T3" s="4"/>
       <c r="U3" s="4"/>
     </row>
-    <row r="4" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" ht="14.25" customHeight="1">
       <c r="A4" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="19" t="s">
         <v>13</v>
@@ -839,7 +864,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E4" s="19">
         <v>1930</v>
@@ -848,7 +873,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H4" s="19">
         <v>30</v>
@@ -869,9 +894,9 @@
       <c r="T4" s="4"/>
       <c r="U4" s="4"/>
     </row>
-    <row r="5" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" ht="14.25" customHeight="1">
       <c r="A5" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="19" t="s">
         <v>13</v>
@@ -880,7 +905,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E5" s="19">
         <v>1940</v>
@@ -889,7 +914,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H5" s="19">
         <v>40</v>
@@ -910,9 +935,9 @@
       <c r="T5" s="4"/>
       <c r="U5" s="4"/>
     </row>
-    <row r="6" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" ht="14.25" customHeight="1">
       <c r="A6" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="19" t="s">
         <v>13</v>
@@ -921,7 +946,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E6" s="19">
         <v>1950</v>
@@ -930,7 +955,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H6" s="19">
         <v>50</v>
@@ -951,9 +976,9 @@
       <c r="T6" s="4"/>
       <c r="U6" s="4"/>
     </row>
-    <row r="7" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" ht="14.25" customHeight="1">
       <c r="A7" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="19" t="s">
         <v>13</v>
@@ -962,7 +987,7 @@
         <v>10</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E7" s="19">
         <v>1960</v>
@@ -971,7 +996,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H7" s="19">
         <v>60</v>
@@ -992,9 +1017,9 @@
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
     </row>
-    <row r="8" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" ht="14.25" customHeight="1">
       <c r="A8" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="19" t="s">
         <v>13</v>
@@ -1003,7 +1028,7 @@
         <v>10</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E8" s="19">
         <v>1970</v>
@@ -1012,7 +1037,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H8" s="19">
         <v>70</v>
@@ -1033,9 +1058,9 @@
       <c r="T8" s="4"/>
       <c r="U8" s="4"/>
     </row>
-    <row r="9" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" ht="14.25" customHeight="1">
       <c r="A9" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="19" t="s">
         <v>13</v>
@@ -1044,7 +1069,7 @@
         <v>11</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E9" s="19">
         <v>1930</v>
@@ -1053,7 +1078,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H9" s="19">
         <v>30</v>
@@ -1074,9 +1099,9 @@
       <c r="T9" s="9"/>
       <c r="U9" s="4"/>
     </row>
-    <row r="10" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" ht="14.25" customHeight="1">
       <c r="A10" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="19" t="s">
         <v>13</v>
@@ -1085,7 +1110,7 @@
         <v>11</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E10" s="19">
         <v>1940</v>
@@ -1094,7 +1119,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H10" s="19">
         <v>40</v>
@@ -1115,9 +1140,9 @@
       <c r="T10" s="9"/>
       <c r="U10" s="4"/>
     </row>
-    <row r="11" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" ht="14.25" customHeight="1">
       <c r="A11" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="19" t="s">
         <v>13</v>
@@ -1126,7 +1151,7 @@
         <v>11</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E11" s="19">
         <v>1950</v>
@@ -1135,7 +1160,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H11" s="19">
         <v>50</v>
@@ -1156,9 +1181,9 @@
       <c r="T11" s="9"/>
       <c r="U11" s="4"/>
     </row>
-    <row r="12" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" ht="14.25" customHeight="1">
       <c r="A12" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="19" t="s">
         <v>13</v>
@@ -1167,7 +1192,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E12" s="19">
         <v>1960</v>
@@ -1176,7 +1201,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H12" s="19">
         <v>60</v>
@@ -1197,9 +1222,9 @@
       <c r="T12" s="9"/>
       <c r="U12" s="4"/>
     </row>
-    <row r="13" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" ht="14.25" customHeight="1">
       <c r="A13" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" s="19" t="s">
         <v>13</v>
@@ -1208,7 +1233,7 @@
         <v>11</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E13" s="19">
         <v>1970</v>
@@ -1217,7 +1242,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H13" s="19">
         <v>70</v>
@@ -1238,15 +1263,15 @@
       <c r="T13" s="9"/>
       <c r="U13" s="4"/>
     </row>
-    <row r="14" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" ht="14.25" customHeight="1">
       <c r="A14" s="18" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="B14" s="19" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>8</v>
@@ -1258,7 +1283,7 @@
         <v>8</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H14" s="19"/>
       <c r="I14" s="19">
@@ -1277,7 +1302,7 @@
       <c r="T14" s="4"/>
       <c r="U14" s="4"/>
     </row>
-    <row r="15" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" ht="14.25" customHeight="1">
       <c r="A15" s="18" t="s">
         <v>7</v>
       </c>
@@ -1297,7 +1322,7 @@
         <v>7</v>
       </c>
       <c r="G15" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H15" s="19"/>
       <c r="I15" s="19">
@@ -1316,16 +1341,34 @@
       <c r="T15" s="4"/>
       <c r="U15" s="4"/>
     </row>
-    <row r="16" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="4"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
+    <row r="16" spans="1:21" ht="14.25" customHeight="1">
+      <c r="A16" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="19">
+        <v>1930</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="H16" s="19">
+        <v>30</v>
+      </c>
+      <c r="I16" s="19">
+        <v>12</v>
+      </c>
       <c r="J16" s="5"/>
       <c r="K16" s="6"/>
       <c r="L16" s="10"/>
@@ -1339,16 +1382,34 @@
       <c r="T16" s="4"/>
       <c r="U16" s="4"/>
     </row>
-    <row r="17" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="4"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
+    <row r="17" spans="1:21" ht="14.25" customHeight="1">
+      <c r="A17" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="19">
+        <v>1940</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="H17" s="19">
+        <v>40</v>
+      </c>
+      <c r="I17" s="19">
+        <v>10</v>
+      </c>
       <c r="J17" s="5"/>
       <c r="K17" s="6"/>
       <c r="L17" s="10"/>
@@ -1362,16 +1423,34 @@
       <c r="T17" s="4"/>
       <c r="U17" s="4"/>
     </row>
-    <row r="18" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="4"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
+    <row r="18" spans="1:21" ht="14.25" customHeight="1">
+      <c r="A18" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="19">
+        <v>1950</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="H18" s="19">
+        <v>50</v>
+      </c>
+      <c r="I18" s="19">
+        <v>16</v>
+      </c>
       <c r="J18" s="5"/>
       <c r="K18" s="6"/>
       <c r="L18" s="10"/>
@@ -1385,16 +1464,34 @@
       <c r="T18" s="4"/>
       <c r="U18" s="4"/>
     </row>
-    <row r="19" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="4"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
+    <row r="19" spans="1:21" ht="14.25" customHeight="1">
+      <c r="A19" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="19">
+        <v>1960</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="H19" s="19">
+        <v>60</v>
+      </c>
+      <c r="I19" s="19">
+        <v>15</v>
+      </c>
       <c r="J19" s="5"/>
       <c r="K19" s="6"/>
       <c r="L19" s="10"/>
@@ -1408,16 +1505,34 @@
       <c r="T19" s="4"/>
       <c r="U19" s="4"/>
     </row>
-    <row r="20" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
+    <row r="20" spans="1:21" ht="14.25" customHeight="1">
+      <c r="A20" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="19">
+        <v>1970</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="H20" s="19">
+        <v>70</v>
+      </c>
+      <c r="I20" s="19">
+        <v>45</v>
+      </c>
       <c r="J20" s="5"/>
       <c r="K20" s="6"/>
       <c r="L20" s="10"/>
@@ -1431,16 +1546,34 @@
       <c r="T20" s="4"/>
       <c r="U20" s="4"/>
     </row>
-    <row r="21" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
+    <row r="21" spans="1:21" ht="14.25" customHeight="1">
+      <c r="A21" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="19">
+        <v>1980</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="H21" s="19">
+        <v>80</v>
+      </c>
+      <c r="I21" s="19">
+        <v>29</v>
+      </c>
       <c r="J21" s="5"/>
       <c r="K21" s="6"/>
       <c r="L21" s="10"/>
@@ -1454,7 +1587,7 @@
       <c r="T21" s="4"/>
       <c r="U21" s="4"/>
     </row>
-    <row r="22" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" ht="14.25" customHeight="1">
       <c r="A22" s="4"/>
       <c r="B22" s="9"/>
       <c r="C22" s="4"/>
@@ -1477,7 +1610,7 @@
       <c r="T22" s="4"/>
       <c r="U22" s="4"/>
     </row>
-    <row r="23" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" ht="14.25" customHeight="1">
       <c r="A23" s="4"/>
       <c r="B23" s="9"/>
       <c r="C23" s="4"/>
@@ -1500,7 +1633,7 @@
       <c r="T23" s="4"/>
       <c r="U23" s="4"/>
     </row>
-    <row r="24" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" ht="14.25" customHeight="1">
       <c r="A24" s="4"/>
       <c r="B24" s="9"/>
       <c r="C24" s="4"/>
@@ -1523,7 +1656,7 @@
       <c r="T24" s="4"/>
       <c r="U24" s="4"/>
     </row>
-    <row r="25" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" ht="14.25" customHeight="1">
       <c r="A25" s="4"/>
       <c r="B25" s="9"/>
       <c r="C25" s="4"/>
@@ -1546,7 +1679,7 @@
       <c r="T25" s="4"/>
       <c r="U25" s="4"/>
     </row>
-    <row r="26" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" ht="14.25" customHeight="1">
       <c r="A26" s="4"/>
       <c r="B26" s="9"/>
       <c r="C26" s="4"/>
@@ -1569,7 +1702,7 @@
       <c r="T26" s="4"/>
       <c r="U26" s="4"/>
     </row>
-    <row r="27" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" ht="14.25" customHeight="1">
       <c r="A27" s="4"/>
       <c r="B27" s="9"/>
       <c r="C27" s="4"/>
@@ -1592,7 +1725,7 @@
       <c r="T27" s="4"/>
       <c r="U27" s="4"/>
     </row>
-    <row r="28" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" ht="14.25" customHeight="1">
       <c r="A28" s="4"/>
       <c r="B28" s="9"/>
       <c r="C28" s="4"/>
@@ -1615,7 +1748,7 @@
       <c r="T28" s="4"/>
       <c r="U28" s="4"/>
     </row>
-    <row r="29" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" ht="14.25" customHeight="1">
       <c r="A29" s="4"/>
       <c r="B29" s="9"/>
       <c r="C29" s="4"/>
@@ -1638,7 +1771,7 @@
       <c r="T29" s="4"/>
       <c r="U29" s="4"/>
     </row>
-    <row r="30" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" ht="14.25" customHeight="1">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -1661,7 +1794,7 @@
       <c r="T30" s="4"/>
       <c r="U30" s="4"/>
     </row>
-    <row r="31" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" ht="14.25" customHeight="1">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -1684,7 +1817,7 @@
       <c r="T31" s="4"/>
       <c r="U31" s="4"/>
     </row>
-    <row r="32" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" ht="14.25" customHeight="1">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -1707,7 +1840,7 @@
       <c r="T32" s="4"/>
       <c r="U32" s="4"/>
     </row>
-    <row r="33" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21" ht="14.25" customHeight="1">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -1730,8 +1863,8 @@
       <c r="T33" s="4"/>
       <c r="U33" s="4"/>
     </row>
-    <row r="34" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21" ht="14.25" customHeight="1"/>
+    <row r="35" spans="1:21" ht="14.25" customHeight="1">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1739,7 +1872,7 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:21" ht="14.25" customHeight="1">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1747,7 +1880,7 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:21" ht="14.25" customHeight="1">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1755,7 +1888,7 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
-    <row r="38" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:21" ht="14.25" customHeight="1">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1763,7 +1896,7 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
-    <row r="39" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:21" ht="14.25" customHeight="1">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1771,7 +1904,7 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
     </row>
-    <row r="40" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:21" ht="14.25" customHeight="1">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1779,7 +1912,7 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
     </row>
-    <row r="41" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:21" ht="14.25" customHeight="1">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1787,7 +1920,7 @@
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
     </row>
-    <row r="42" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:21" ht="14.25" customHeight="1">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1795,7 +1928,7 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
     </row>
-    <row r="43" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:21" ht="14.25" customHeight="1">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1803,7 +1936,7 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
     </row>
-    <row r="44" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:21" ht="14.25" customHeight="1">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1811,7 +1944,7 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
     </row>
-    <row r="45" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:21" ht="14.25" customHeight="1">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1819,7 +1952,7 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
     </row>
-    <row r="46" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:21" ht="14.25" customHeight="1">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1827,7 +1960,7 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
     </row>
-    <row r="47" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:21" ht="14.25" customHeight="1">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1835,7 +1968,7 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
     </row>
-    <row r="48" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:21" ht="14.25" customHeight="1">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1843,7 +1976,7 @@
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
     </row>
-    <row r="49" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:8" ht="14.25" customHeight="1">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1851,7 +1984,7 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
     </row>
-    <row r="50" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:8" ht="14.25" customHeight="1">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1859,7 +1992,7 @@
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
     </row>
-    <row r="51" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:8" ht="14.25" customHeight="1">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1867,7 +2000,7 @@
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
     </row>
-    <row r="52" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:8" ht="14.25" customHeight="1">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1875,7 +2008,7 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
     </row>
-    <row r="53" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:8" ht="14.25" customHeight="1">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1883,7 +2016,7 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
     </row>
-    <row r="54" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:8" ht="14.25" customHeight="1">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1891,7 +2024,7 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
     </row>
-    <row r="55" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:8" ht="14.25" customHeight="1">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -1899,7 +2032,7 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
     </row>
-    <row r="56" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:8" ht="14.25" customHeight="1">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1907,7 +2040,7 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
     </row>
-    <row r="57" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:8" ht="14.25" customHeight="1">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1915,7 +2048,7 @@
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
     </row>
-    <row r="58" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:8" ht="14.25" customHeight="1">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1923,7 +2056,7 @@
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
     </row>
-    <row r="59" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:8" ht="14.25" customHeight="1">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1931,7 +2064,7 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
     </row>
-    <row r="60" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:8" ht="14.25" customHeight="1">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1939,7 +2072,7 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
     </row>
-    <row r="61" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:8" ht="14.25" customHeight="1">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1947,7 +2080,7 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
     </row>
-    <row r="62" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:8" ht="14.25" customHeight="1">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -1955,7 +2088,7 @@
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:8">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1963,7 +2096,7 @@
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:8">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>

--- a/docs/Records and Playlists/playlists.xlsx
+++ b/docs/Records and Playlists/playlists.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="62">
   <si>
     <t>language</t>
   </si>
@@ -177,6 +177,42 @@
   </si>
   <si>
     <t>heb_songs_v1</t>
+  </si>
+  <si>
+    <t>ENG30DC</t>
+  </si>
+  <si>
+    <t>ENG40DC</t>
+  </si>
+  <si>
+    <t>ENG50DC</t>
+  </si>
+  <si>
+    <t>ENG60DC</t>
+  </si>
+  <si>
+    <t>ENG70DC</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>eng</t>
+  </si>
+  <si>
+    <t>eng_songs_v1</t>
+  </si>
+  <si>
+    <t>eng_songs_v2</t>
+  </si>
+  <si>
+    <t>eng_songs_v3</t>
+  </si>
+  <si>
+    <t>eng_songs_v4</t>
+  </si>
+  <si>
+    <t>eng_songs_v5</t>
   </si>
 </sst>
 </file>
@@ -336,7 +372,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -398,6 +434,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -706,7 +745,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -717,7 +756,7 @@
   <dimension ref="A1:U64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1280,7 +1319,7 @@
         <v>12</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G14" s="18" t="s">
         <v>25</v>
@@ -1588,15 +1627,33 @@
       <c r="U21" s="4"/>
     </row>
     <row r="22" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A22" s="4"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
+      <c r="A22" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="19">
+        <v>1930</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="H22" s="19">
+        <v>30</v>
+      </c>
+      <c r="I22" s="19">
+        <v>7</v>
+      </c>
       <c r="J22" s="5"/>
       <c r="K22" s="6"/>
       <c r="L22" s="10"/>
@@ -1611,15 +1668,33 @@
       <c r="U22" s="4"/>
     </row>
     <row r="23" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A23" s="4"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
+      <c r="A23" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="19">
+        <v>1940</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="H23" s="19">
+        <v>40</v>
+      </c>
+      <c r="I23" s="19">
+        <v>6</v>
+      </c>
       <c r="J23" s="5"/>
       <c r="K23" s="6"/>
       <c r="L23" s="10"/>
@@ -1634,15 +1709,33 @@
       <c r="U23" s="4"/>
     </row>
     <row r="24" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A24" s="4"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
+      <c r="A24" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" s="19">
+        <v>1950</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="H24" s="19">
+        <v>50</v>
+      </c>
+      <c r="I24" s="19">
+        <v>14</v>
+      </c>
       <c r="J24" s="5"/>
       <c r="K24" s="6"/>
       <c r="L24" s="10"/>
@@ -1657,15 +1750,33 @@
       <c r="U24" s="4"/>
     </row>
     <row r="25" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A25" s="4"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
+      <c r="A25" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" s="19">
+        <v>1960</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="H25" s="19">
+        <v>60</v>
+      </c>
+      <c r="I25" s="19">
+        <v>22</v>
+      </c>
       <c r="J25" s="5"/>
       <c r="K25" s="6"/>
       <c r="L25" s="10"/>
@@ -1680,15 +1791,33 @@
       <c r="U25" s="4"/>
     </row>
     <row r="26" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A26" s="4"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
+      <c r="A26" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" s="19">
+        <v>1970</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="H26" s="19">
+        <v>70</v>
+      </c>
+      <c r="I26" s="19">
+        <v>10</v>
+      </c>
       <c r="J26" s="5"/>
       <c r="K26" s="6"/>
       <c r="L26" s="10"/>

--- a/docs/Records and Playlists/playlists.xlsx
+++ b/docs/Records and Playlists/playlists.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="75">
   <si>
     <t>language</t>
   </si>
@@ -116,9 +116,6 @@
     <t>rus_songs_v3</t>
   </si>
   <si>
-    <t>spa_songs_v1</t>
-  </si>
-  <si>
     <t>yid_songs_v1</t>
   </si>
   <si>
@@ -213,13 +210,55 @@
   </si>
   <si>
     <t>eng_songs_v5</t>
+  </si>
+  <si>
+    <t>mid</t>
+  </si>
+  <si>
+    <t>cla</t>
+  </si>
+  <si>
+    <t>lad</t>
+  </si>
+  <si>
+    <t>pra</t>
+  </si>
+  <si>
+    <t>yiddish</t>
+  </si>
+  <si>
+    <t>mizrahit middle east</t>
+  </si>
+  <si>
+    <t>classical</t>
+  </si>
+  <si>
+    <t>ladino</t>
+  </si>
+  <si>
+    <t>prayer (piyutim)</t>
+  </si>
+  <si>
+    <t>mizrahit_middle_east_music_v1</t>
+  </si>
+  <si>
+    <t>prayer_songs_v1</t>
+  </si>
+  <si>
+    <t>ladino_songs_v1</t>
+  </si>
+  <si>
+    <t>classical_songs_v1</t>
+  </si>
+  <si>
+    <t>spa_songs_v2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -246,20 +285,6 @@
     <font>
       <b/>
       <sz val="8"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF030303"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="24"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -372,7 +397,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -400,13 +425,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -418,11 +436,11 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -434,7 +452,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -745,7 +763,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -755,8 +773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -766,7 +784,7 @@
     <col min="3" max="3" width="24.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.875" style="2" customWidth="1"/>
     <col min="5" max="5" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="34.75" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.25" customWidth="1"/>
     <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
@@ -774,32 +792,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15" thickBot="1">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="28" t="s">
+      <c r="D1" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="30" t="s">
-        <v>31</v>
+      <c r="I1" s="27" t="s">
+        <v>30</v>
       </c>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
@@ -815,29 +833,29 @@
       <c r="U1" s="4"/>
     </row>
     <row r="2" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A2" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="25" t="s">
+      <c r="A2" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="25" t="s">
+      <c r="E2" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="25"/>
-      <c r="I2" s="19">
+      <c r="H2" s="22"/>
+      <c r="I2" s="16">
         <v>10</v>
       </c>
       <c r="J2" s="6"/>
@@ -854,30 +872,30 @@
       <c r="U2" s="4"/>
     </row>
     <row r="3" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19">
-        <v>33</v>
+      <c r="B3" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16">
+        <v>40</v>
       </c>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
@@ -893,31 +911,31 @@
       <c r="U3" s="4"/>
     </row>
     <row r="4" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="18" t="s">
+      <c r="B4" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="19">
+      <c r="D4" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="16">
         <v>1930</v>
       </c>
-      <c r="F4" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="18" t="s">
+      <c r="F4" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H4" s="16">
         <v>30</v>
       </c>
-      <c r="I4" s="19">
+      <c r="I4" s="16">
         <v>14</v>
       </c>
       <c r="J4" s="6"/>
@@ -934,31 +952,31 @@
       <c r="U4" s="4"/>
     </row>
     <row r="5" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="18" t="s">
+      <c r="B5" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="19">
+      <c r="D5" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="16">
         <v>1940</v>
       </c>
-      <c r="F5" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="18" t="s">
+      <c r="F5" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="16">
         <v>40</v>
       </c>
-      <c r="I5" s="19">
+      <c r="I5" s="16">
         <v>12</v>
       </c>
       <c r="J5" s="6"/>
@@ -975,31 +993,31 @@
       <c r="U5" s="4"/>
     </row>
     <row r="6" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="18" t="s">
+      <c r="B6" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="19">
+      <c r="D6" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="16">
         <v>1950</v>
       </c>
-      <c r="F6" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="18" t="s">
+      <c r="F6" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="16">
         <v>50</v>
       </c>
-      <c r="I6" s="19">
+      <c r="I6" s="16">
         <v>23</v>
       </c>
       <c r="J6" s="5"/>
@@ -1016,31 +1034,31 @@
       <c r="U6" s="4"/>
     </row>
     <row r="7" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="18" t="s">
+      <c r="B7" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="19">
+      <c r="D7" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="16">
         <v>1960</v>
       </c>
-      <c r="F7" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="18" t="s">
+      <c r="F7" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H7" s="16">
         <v>60</v>
       </c>
-      <c r="I7" s="19">
+      <c r="I7" s="16">
         <v>33</v>
       </c>
       <c r="J7" s="5"/>
@@ -1057,31 +1075,31 @@
       <c r="U7" s="4"/>
     </row>
     <row r="8" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="18" t="s">
+      <c r="B8" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="19">
+      <c r="D8" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="16">
         <v>1970</v>
       </c>
-      <c r="F8" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="18" t="s">
+      <c r="F8" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H8" s="16">
         <v>70</v>
       </c>
-      <c r="I8" s="19">
+      <c r="I8" s="16">
         <v>21</v>
       </c>
       <c r="J8" s="5"/>
@@ -1098,31 +1116,31 @@
       <c r="U8" s="4"/>
     </row>
     <row r="9" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="21" t="s">
+      <c r="B9" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="19">
+      <c r="D9" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="16">
         <v>1930</v>
       </c>
-      <c r="F9" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="21" t="s">
+      <c r="F9" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="16">
         <v>30</v>
       </c>
-      <c r="I9" s="19">
+      <c r="I9" s="16">
         <v>14</v>
       </c>
       <c r="J9" s="5"/>
@@ -1139,31 +1157,31 @@
       <c r="U9" s="4"/>
     </row>
     <row r="10" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="21" t="s">
+      <c r="B10" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="19">
+      <c r="D10" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="16">
         <v>1940</v>
       </c>
-      <c r="F10" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="21" t="s">
+      <c r="F10" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H10" s="16">
         <v>40</v>
       </c>
-      <c r="I10" s="19">
+      <c r="I10" s="16">
         <v>22</v>
       </c>
       <c r="J10" s="5"/>
@@ -1180,31 +1198,31 @@
       <c r="U10" s="4"/>
     </row>
     <row r="11" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="21" t="s">
+      <c r="B11" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="19">
+      <c r="D11" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="16">
         <v>1950</v>
       </c>
-      <c r="F11" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="21" t="s">
+      <c r="F11" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H11" s="16">
         <v>50</v>
       </c>
-      <c r="I11" s="19">
+      <c r="I11" s="16">
         <v>13</v>
       </c>
       <c r="J11" s="5"/>
@@ -1221,31 +1239,31 @@
       <c r="U11" s="4"/>
     </row>
     <row r="12" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="21" t="s">
+      <c r="B12" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="19">
+      <c r="D12" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="16">
         <v>1960</v>
       </c>
-      <c r="F12" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="21" t="s">
+      <c r="F12" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H12" s="16">
         <v>60</v>
       </c>
-      <c r="I12" s="19">
+      <c r="I12" s="16">
         <v>21</v>
       </c>
       <c r="J12" s="5"/>
@@ -1262,31 +1280,31 @@
       <c r="U12" s="4"/>
     </row>
     <row r="13" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="21" t="s">
+      <c r="B13" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="19">
+      <c r="D13" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="16">
         <v>1970</v>
       </c>
-      <c r="F13" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="21" t="s">
+      <c r="F13" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H13" s="16">
         <v>70</v>
       </c>
-      <c r="I13" s="19">
+      <c r="I13" s="16">
         <v>27</v>
       </c>
       <c r="J13" s="5"/>
@@ -1303,29 +1321,29 @@
       <c r="U13" s="4"/>
     </row>
     <row r="14" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A14" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="18" t="s">
+      <c r="A14" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="18" t="s">
+      <c r="E14" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19">
+      <c r="H14" s="16"/>
+      <c r="I14" s="16">
         <v>30</v>
       </c>
       <c r="J14" s="5"/>
@@ -1342,29 +1360,29 @@
       <c r="U14" s="4"/>
     </row>
     <row r="15" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="22" t="s">
+      <c r="B15" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19">
+      <c r="E15" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16">
         <v>46</v>
       </c>
       <c r="J15" s="5"/>
@@ -1381,31 +1399,31 @@
       <c r="U15" s="4"/>
     </row>
     <row r="16" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A16" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="21" t="s">
+      <c r="A16" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="E16" s="16">
+        <v>1930</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="19">
-        <v>1930</v>
-      </c>
-      <c r="F16" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="H16" s="19">
+      <c r="H16" s="16">
         <v>30</v>
       </c>
-      <c r="I16" s="19">
+      <c r="I16" s="16">
         <v>12</v>
       </c>
       <c r="J16" s="5"/>
@@ -1422,31 +1440,31 @@
       <c r="U16" s="4"/>
     </row>
     <row r="17" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A17" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="21" t="s">
+      <c r="A17" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="E17" s="16">
+        <v>1940</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="E17" s="19">
-        <v>1940</v>
-      </c>
-      <c r="F17" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="H17" s="19">
+      <c r="H17" s="16">
         <v>40</v>
       </c>
-      <c r="I17" s="19">
+      <c r="I17" s="16">
         <v>10</v>
       </c>
       <c r="J17" s="5"/>
@@ -1463,31 +1481,31 @@
       <c r="U17" s="4"/>
     </row>
     <row r="18" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A18" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="21" t="s">
+      <c r="A18" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="E18" s="16">
+        <v>1950</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="19">
-        <v>1950</v>
-      </c>
-      <c r="F18" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="H18" s="19">
+      <c r="H18" s="16">
         <v>50</v>
       </c>
-      <c r="I18" s="19">
+      <c r="I18" s="16">
         <v>16</v>
       </c>
       <c r="J18" s="5"/>
@@ -1504,31 +1522,31 @@
       <c r="U18" s="4"/>
     </row>
     <row r="19" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A19" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="21" t="s">
+      <c r="A19" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="E19" s="16">
+        <v>1960</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="E19" s="19">
-        <v>1960</v>
-      </c>
-      <c r="F19" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="H19" s="19">
+      <c r="H19" s="16">
         <v>60</v>
       </c>
-      <c r="I19" s="19">
+      <c r="I19" s="16">
         <v>15</v>
       </c>
       <c r="J19" s="5"/>
@@ -1545,31 +1563,31 @@
       <c r="U19" s="4"/>
     </row>
     <row r="20" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A20" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="21" t="s">
+      <c r="A20" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="E20" s="16">
+        <v>1970</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="E20" s="19">
-        <v>1970</v>
-      </c>
-      <c r="F20" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="H20" s="19">
+      <c r="H20" s="16">
         <v>70</v>
       </c>
-      <c r="I20" s="19">
+      <c r="I20" s="16">
         <v>45</v>
       </c>
       <c r="J20" s="5"/>
@@ -1586,31 +1604,31 @@
       <c r="U20" s="4"/>
     </row>
     <row r="21" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="18" t="s">
+      <c r="D21" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="E21" s="16">
+        <v>1980</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="E21" s="19">
-        <v>1980</v>
-      </c>
-      <c r="F21" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="H21" s="19">
+      <c r="H21" s="16">
         <v>80</v>
       </c>
-      <c r="I21" s="19">
+      <c r="I21" s="16">
         <v>29</v>
       </c>
       <c r="J21" s="5"/>
@@ -1627,31 +1645,31 @@
       <c r="U21" s="4"/>
     </row>
     <row r="22" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A22" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="31" t="s">
+      <c r="A22" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="D22" s="31" t="s">
+      <c r="E22" s="16">
+        <v>1930</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="E22" s="19">
-        <v>1930</v>
-      </c>
-      <c r="F22" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="H22" s="19">
+      <c r="H22" s="16">
         <v>30</v>
       </c>
-      <c r="I22" s="19">
+      <c r="I22" s="16">
         <v>7</v>
       </c>
       <c r="J22" s="5"/>
@@ -1668,31 +1686,31 @@
       <c r="U22" s="4"/>
     </row>
     <row r="23" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A23" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="31" t="s">
+      <c r="A23" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="D23" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="E23" s="19">
+      <c r="E23" s="16">
         <v>1940</v>
       </c>
-      <c r="F23" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="H23" s="19">
+      <c r="F23" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H23" s="16">
         <v>40</v>
       </c>
-      <c r="I23" s="19">
+      <c r="I23" s="16">
         <v>6</v>
       </c>
       <c r="J23" s="5"/>
@@ -1709,31 +1727,31 @@
       <c r="U23" s="4"/>
     </row>
     <row r="24" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A24" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="31" t="s">
+      <c r="A24" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="D24" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="E24" s="19">
+      <c r="E24" s="16">
         <v>1950</v>
       </c>
-      <c r="F24" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="H24" s="19">
+      <c r="F24" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="H24" s="16">
         <v>50</v>
       </c>
-      <c r="I24" s="19">
+      <c r="I24" s="16">
         <v>14</v>
       </c>
       <c r="J24" s="5"/>
@@ -1750,31 +1768,31 @@
       <c r="U24" s="4"/>
     </row>
     <row r="25" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A25" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="B25" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="31" t="s">
+      <c r="A25" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="E25" s="19">
+      <c r="E25" s="16">
         <v>1960</v>
       </c>
-      <c r="F25" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="19" t="s">
+      <c r="F25" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="H25" s="16">
         <v>60</v>
       </c>
-      <c r="H25" s="19">
-        <v>60</v>
-      </c>
-      <c r="I25" s="19">
+      <c r="I25" s="16">
         <v>22</v>
       </c>
       <c r="J25" s="5"/>
@@ -1791,31 +1809,31 @@
       <c r="U25" s="4"/>
     </row>
     <row r="26" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="B26" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="31" t="s">
+      <c r="D26" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="E26" s="19">
+      <c r="E26" s="16">
         <v>1970</v>
       </c>
-      <c r="F26" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="H26" s="19">
+      <c r="F26" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="H26" s="16">
         <v>70</v>
       </c>
-      <c r="I26" s="19">
+      <c r="I26" s="16">
         <v>10</v>
       </c>
       <c r="J26" s="5"/>
@@ -1832,15 +1850,27 @@
       <c r="U26" s="4"/>
     </row>
     <row r="27" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A27" s="4"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
+      <c r="A27" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16">
+        <v>56</v>
+      </c>
       <c r="J27" s="5"/>
       <c r="K27" s="6"/>
       <c r="L27" s="10"/>
@@ -1855,15 +1885,27 @@
       <c r="U27" s="4"/>
     </row>
     <row r="28" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A28" s="4"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
+      <c r="A28" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16">
+        <v>22</v>
+      </c>
       <c r="J28" s="5"/>
       <c r="K28" s="6"/>
       <c r="L28" s="10"/>
@@ -1878,15 +1920,27 @@
       <c r="U28" s="4"/>
     </row>
     <row r="29" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A29" s="4"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
+      <c r="A29" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16">
+        <v>25</v>
+      </c>
       <c r="J29" s="5"/>
       <c r="K29" s="6"/>
       <c r="L29" s="10"/>
@@ -1901,15 +1955,27 @@
       <c r="U29" s="4"/>
     </row>
     <row r="30" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
+      <c r="A30" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16">
+        <v>26</v>
+      </c>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
@@ -1952,7 +2018,7 @@
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
-      <c r="F32" s="16"/>
+      <c r="F32" s="13"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
@@ -1975,7 +2041,7 @@
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
-      <c r="F33" s="17"/>
+      <c r="F33" s="14"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
